--- a/03スプリントバックログ/作成途中Scrum2_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/作成途中Scrum2_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F851579-8D1D-4263-AACC-A9CF1EAC002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B54E264-C20D-48A0-8582-1026E9C0ADBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="790" yWindow="940" windowWidth="16800" windowHeight="9890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="945" windowWidth="16800" windowHeight="9885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -364,6 +364,20 @@
   </si>
   <si>
     <t>いつもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況
+[実施・完了]</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -776,12 +790,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -812,7 +826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -827,7 +841,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -842,21 +856,21 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -879,21 +893,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -903,7 +919,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -916,8 +932,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -926,8 +945,9 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -936,8 +956,9 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -946,8 +967,9 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -956,8 +978,9 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -966,8 +989,9 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -976,8 +1000,9 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -986,8 +1011,9 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -996,18 +1022,21 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1018,21 +1047,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1073,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1055,66 +1086,79 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
